--- a/NUOVI DATI/Risultati_FINAL_withPLOTS.xlsx
+++ b/NUOVI DATI/Risultati_FINAL_withPLOTS.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents(D)\GitHub\ml_project\NUOVI DATI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3128C9-9FB7-4189-BFC5-6623D5CA8A48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3249E2-2879-4657-BC8A-A969FFB6494B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{CF306371-0C73-44BF-8ED4-179882560BC9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{CF306371-0C73-44BF-8ED4-179882560BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio4" sheetId="4" r:id="rId3"/>
+    <sheet name="Foglio3" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="179021"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="68">
   <si>
     <t>Hidden function</t>
   </si>
@@ -60,6 +63,183 @@
   </si>
   <si>
     <t>tanH/sigmoid</t>
+  </si>
+  <si>
+    <t>&gt;&gt; mnist_train(net,20,0.1,1000,10000,1)</t>
+  </si>
+  <si>
+    <t>guessesed: 7574/10000 - accuracy: 75.74%</t>
+  </si>
+  <si>
+    <t>epoch: 1, total error: 807.331272</t>
+  </si>
+  <si>
+    <t>guessesed: 7886/10000 - accuracy: 78.86%</t>
+  </si>
+  <si>
+    <t>epoch: 2, total error: 859.668101</t>
+  </si>
+  <si>
+    <t>guessesed: 8046/10000 - accuracy: 80.46%</t>
+  </si>
+  <si>
+    <t>epoch: 3, total error: 809.142445</t>
+  </si>
+  <si>
+    <t>guessesed: 7834/10000 - accuracy: 78.34%</t>
+  </si>
+  <si>
+    <t>epoch: 4, total error: 899.992092</t>
+  </si>
+  <si>
+    <t>guessesed: 8048/10000 - accuracy: 80.48%</t>
+  </si>
+  <si>
+    <t>epoch: 5, total error: 785.516256</t>
+  </si>
+  <si>
+    <t>guessesed: 8119/10000 - accuracy: 81.19%</t>
+  </si>
+  <si>
+    <t>epoch: 6, total error: 744.926282</t>
+  </si>
+  <si>
+    <t>guessesed: 8198/10000 - accuracy: 81.98%</t>
+  </si>
+  <si>
+    <t>epoch: 7, total error: 773.242263</t>
+  </si>
+  <si>
+    <t>guessesed: 8095/10000 - accuracy: 80.95%</t>
+  </si>
+  <si>
+    <t>epoch: 8, total error: 804.688203</t>
+  </si>
+  <si>
+    <t>guessesed: 8308/10000 - accuracy: 83.08%</t>
+  </si>
+  <si>
+    <t>epoch: 9, total error: 813.350640</t>
+  </si>
+  <si>
+    <t>guessesed: 8295/10000 - accuracy: 82.95%</t>
+  </si>
+  <si>
+    <t>epoch: 10, total error: 748.373128</t>
+  </si>
+  <si>
+    <t>guessesed: 8458/10000 - accuracy: 84.58%</t>
+  </si>
+  <si>
+    <t>epoch: 11, total error: 638.644936</t>
+  </si>
+  <si>
+    <t>guessesed: 8489/10000 - accuracy: 84.89%</t>
+  </si>
+  <si>
+    <t>epoch: 12, total error: 671.770910</t>
+  </si>
+  <si>
+    <t>guessesed: 8576/10000 - accuracy: 85.76%</t>
+  </si>
+  <si>
+    <t>epoch: 13, total error: 620.901077</t>
+  </si>
+  <si>
+    <t>guessesed: 8563/10000 - accuracy: 85.63%</t>
+  </si>
+  <si>
+    <t>epoch: 14, total error: 626.443408</t>
+  </si>
+  <si>
+    <t>guessesed: 8478/10000 - accuracy: 84.78%</t>
+  </si>
+  <si>
+    <t>epoch: 15, total error: 686.881258</t>
+  </si>
+  <si>
+    <t>guessesed: 8468/10000 - accuracy: 84.68%</t>
+  </si>
+  <si>
+    <t>epoch: 16, total error: 682.831253</t>
+  </si>
+  <si>
+    <t>guessesed: 8592/10000 - accuracy: 85.92%</t>
+  </si>
+  <si>
+    <t>epoch: 17, total error: 635.802587</t>
+  </si>
+  <si>
+    <t>guessesed: 8562/10000 - accuracy: 85.62%</t>
+  </si>
+  <si>
+    <t>epoch: 18, total error: 633.789554</t>
+  </si>
+  <si>
+    <t>guessesed: 8593/10000 - accuracy: 85.93%</t>
+  </si>
+  <si>
+    <t>epoch: 19, total error: 640.041782</t>
+  </si>
+  <si>
+    <t>guessesed: 8577/10000 - accuracy: 85.77%</t>
+  </si>
+  <si>
+    <t>epoch: 20, total error: 633.082214</t>
+  </si>
+  <si>
+    <t>Elapsed time is 8778.434797 seconds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ans = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  struct with fields:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    hiddenSizes: [784 800 10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       trainFnc: {@tanH  @sigmoid}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    trainDerFnc: {2×1 cell}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        costFnc: @quadraticCost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        weights: {[800×784 double]  [10×800 double]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         biases: {[800×1 double]  [10×1 double]}</t>
+  </si>
+  <si>
+    <t>guessesed: 9383/10000 - accuracy: 93.83%</t>
+  </si>
+  <si>
+    <t>epoch: 1, total error: 255.036875</t>
+  </si>
+  <si>
+    <t>Elapsed time is 25908.917793 seconds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mnist_train(net,1,0.1,60000,10000,1)</t>
+  </si>
+  <si>
+    <t>On-line</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -120,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -137,6 +317,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -356,7 +538,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,100</c:v>
+                  <c:v>0,1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1265,7 +1447,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,100</c:v>
+                  <c:v>0,1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2106,7 +2288,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,100</c:v>
+                  <c:v>0,1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2609,7 +2791,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -2618,9 +2800,6 @@
                         <a:sysClr val="window" lastClr="FFFFFF"/>
                       </a:glow>
                     </a:effectLst>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="it-IT"/>
@@ -2805,6 +2984,3366 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>On-line</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio4!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio4!$A$26:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio4!$B$26,Foglio4!$B$3,Foglio4!$B$4,Foglio4!$B$5,Foglio4!$B$6,Foglio4!$B$7,Foglio4!$B$8,Foglio4!$B$9,Foglio4!$B$10,Foglio4!$B$11,Foglio4!$B$12,Foglio4!$B$13,Foglio4!$B$14,Foglio4!$B$15,Foglio4!$B$16,Foglio4!$B$17,Foglio4!$B$18,Foglio4!$B$19,Foglio4!$B$20,Foglio4!$B$21,Foglio4!$B$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75739999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78859999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81189999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82950000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8458</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8478</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8468</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85929999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85770000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A6B-4400-8675-243C29572ED1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="655085240"/>
+        <c:axId val="655084600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="655085240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655084600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655084600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Accuracy (GUESSED RATE)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655085240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Batch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio4!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio4!$A$26:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio4!$B$26:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77659999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82230000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83320000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83189999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84719999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8508</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85609999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85560000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86180000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1676-4360-96C0-6650096B81A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="655085240"/>
+        <c:axId val="655084600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="655085240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655084600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655084600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Accuracy (GUESSED RATE)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655085240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>On-line</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio4!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio4!$A$26:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio4!$C$26,Foglio4!$C$3,Foglio4!$C$4,Foglio4!$C$5,Foglio4!$C$6,Foglio4!$C$7,Foglio4!$C$8,Foglio4!$C$9,Foglio4!$C$10,Foglio4!$C$11,Foglio4!$C$12,Foglio4!$C$13,Foglio4!$C$14,Foglio4!$C$15,Foglio4!$C$16,Foglio4!$C$17,Foglio4!$C$18,Foglio4!$C$19,Foglio4!$C$20,Foglio4!$C$21,Foglio4!$C$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>83720.691955000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>807.33127200000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>859.66810099999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>809.14244499999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>899.99209199999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>785.516256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>744.92628200000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>773.24226299999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>804.68820300000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>813.35064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>748.37312799999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>638.64493600000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>671.77090999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>620.90107699999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>626.44340799999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>686.881258</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>682.83125299999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>635.80258700000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>633.78955399999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>640.04178200000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>633.08221400000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B0D-4D46-B742-EEAA5D48A4E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="655085240"/>
+        <c:axId val="655084600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="655085240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655084600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655084600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Total Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655085240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Batch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio4!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio4!$A$26:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio4!$C$26:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>83720.691955000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>862.79403300000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>934.84086400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1036.710842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1404.9319350000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>771.45770700000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>842.43027800000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>842.11514</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>776.90596600000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>725.092624</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>744.226316</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>695.50896799999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>674.74981100000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>662.82601099999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>670.81053999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>634.64829899999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>662.69699000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>653.42689800000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>626.63940500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>675.84457499999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>648.40145700000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1310-43C3-9A7C-08A98D1B6A49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="655085240"/>
+        <c:axId val="655084600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="655085240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655084600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655084600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1500"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Total Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655085240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio4!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>On-line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio4!$A$26:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio4!$B$26,Foglio4!$B$3,Foglio4!$B$4,Foglio4!$B$5,Foglio4!$B$6,Foglio4!$B$7,Foglio4!$B$8,Foglio4!$B$9,Foglio4!$B$10,Foglio4!$B$11,Foglio4!$B$12,Foglio4!$B$13,Foglio4!$B$14,Foglio4!$B$15,Foglio4!$B$16,Foglio4!$B$17,Foglio4!$B$18,Foglio4!$B$19,Foglio4!$B$20,Foglio4!$B$21,Foglio4!$B$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75739999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78859999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81189999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82950000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8458</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8478</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8468</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85929999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85770000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A637-4CC5-91C9-95A2F064F569}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio4!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Batch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio4!$B$26:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77659999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82230000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83320000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83189999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84719999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8508</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85609999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85560000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86180000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A637-4CC5-91C9-95A2F064F569}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="655085240"/>
+        <c:axId val="655084600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="655085240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655084600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655084600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Accuracy % (GUESSED RATE)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655085240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio4!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>On-line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio4!$A$26:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio4!$C$26,Foglio4!$C$3,Foglio4!$C$4,Foglio4!$C$5,Foglio4!$C$6,Foglio4!$C$7,Foglio4!$C$8,Foglio4!$C$9,Foglio4!$C$10,Foglio4!$C$11,Foglio4!$C$12,Foglio4!$C$13,Foglio4!$C$14,Foglio4!$C$15,Foglio4!$C$16,Foglio4!$C$17,Foglio4!$C$18,Foglio4!$C$19,Foglio4!$C$20,Foglio4!$C$21,Foglio4!$C$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>83720.691955000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>807.33127200000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>859.66810099999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>809.14244499999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>899.99209199999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>785.516256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>744.92628200000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>773.24226299999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>804.68820300000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>813.35064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>748.37312799999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>638.64493600000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>671.77090999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>620.90107699999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>626.44340799999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>686.881258</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>682.83125299999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>635.80258700000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>633.78955399999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>640.04178200000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>633.08221400000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F19-4396-9536-1A116EAFFF26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio4!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Batch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio4!$C$26:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>83720.691955000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>862.79403300000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>934.84086400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1036.710842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1404.9319350000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>771.45770700000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>842.43027800000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>842.11514</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>776.90596600000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>725.092624</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>744.226316</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>695.50896799999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>674.74981100000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>662.82601099999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>670.81053999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>634.64829899999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>662.69699000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>653.42689800000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>626.63940500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>675.84457499999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>648.40145700000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F19-4396-9536-1A116EAFFF26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="655085240"/>
+        <c:axId val="655084600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="655085240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655084600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655084600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1500"/>
+          <c:min val="550"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Total Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655085240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2925,6 +6464,237 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -4403,6 +8173,3006 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4526,6 +11296,237 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B423FC-00D6-4B04-9ECB-15767DA2FFB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C471B4B-BC2C-444C-BEC6-7C7EF24FA381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E3A6DC-49F8-4B6D-9283-A663286B813C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1182E64-47CA-45FE-BA21-5F03B8A8862C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Grafico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6CE936-6322-44C9-A3F4-8FCC7FFBC789}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Grafico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D59ADE-4AD9-4367-9AA5-5981D26A3D4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -4534,131 +11535,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
-          <cell r="E2">
-            <v>-1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>-1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>-1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>-1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>-1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>-1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>-1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>-1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>160.453653</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>187.19170800000001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>-1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>-1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>115.13883199999999</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>123.633223</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>155.605774</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>194.776363</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>115.922513</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>119.862752</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>148.566103</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>174.33818299999999</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>124.940039</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23">
-            <v>121.15647</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24">
-            <v>128.964619</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25">
-            <v>147.04007100000001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>0.7</v>
-          </cell>
-        </row>
         <row r="30">
           <cell r="C30">
             <v>0.1</v>
@@ -4680,16 +11556,6 @@
         <row r="33">
           <cell r="D33">
             <v>800</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>0.01</v>
           </cell>
         </row>
         <row r="42">
@@ -5579,7 +12445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFCF10B-8A05-46BE-9F03-BF65F9E6133E}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
@@ -6911,11 +13777,66 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
@@ -6923,69 +13844,880 @@
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F0F573-1BBC-4DE3-9C9E-57537D2D326E}">
+  <dimension ref="A1:A53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8741BCD9-C0A2-4E51-99E5-8F69F279E5A6}">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="C3" s="8">
+        <v>807.33127200000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.78859999999999997</v>
+      </c>
+      <c r="C4" s="8">
+        <v>859.66810099999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="C5" s="8">
+        <v>809.14244499999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.78339999999999999</v>
+      </c>
+      <c r="C6" s="8">
+        <v>899.99209199999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.80479999999999996</v>
+      </c>
+      <c r="C7" s="8">
+        <v>785.516256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.81189999999999996</v>
+      </c>
+      <c r="C8" s="8">
+        <v>744.92628200000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.81979999999999997</v>
+      </c>
+      <c r="C9" s="8">
+        <v>773.24226299999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.8095</v>
+      </c>
+      <c r="C10" s="8">
+        <v>804.68820300000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.83079999999999998</v>
+      </c>
+      <c r="C11" s="8">
+        <v>813.35064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.82950000000000002</v>
+      </c>
+      <c r="C12" s="8">
+        <v>748.37312799999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.8458</v>
+      </c>
+      <c r="C13" s="8">
+        <v>638.64493600000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.84889999999999999</v>
+      </c>
+      <c r="C14" s="8">
+        <v>671.77090999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="C15" s="8">
+        <v>620.90107699999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="C16" s="8">
+        <v>626.44340799999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.8478</v>
+      </c>
+      <c r="C17" s="8">
+        <v>686.881258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.8468</v>
+      </c>
+      <c r="C18" s="8">
+        <v>682.83125299999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="C19" s="8">
+        <v>635.80258700000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="C20" s="8">
+        <v>633.78955399999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.85929999999999995</v>
+      </c>
+      <c r="C21" s="8">
+        <v>640.04178200000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="C22" s="8">
+        <v>633.08221400000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>0</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="C26" s="8">
+        <v>83720.691955000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0.70679999999999998</v>
+      </c>
+      <c r="C27" s="8">
+        <v>862.79403300000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>2</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0.74880000000000002</v>
+      </c>
+      <c r="C28" s="8">
+        <v>934.84086400000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>3</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0.79139999999999999</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1036.710842</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>4</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1404.9319350000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>5</v>
+      </c>
+      <c r="B31" s="9">
+        <v>0.80859999999999999</v>
+      </c>
+      <c r="C31" s="8">
+        <v>771.45770700000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>6</v>
+      </c>
+      <c r="B32" s="9">
+        <v>0.77659999999999996</v>
+      </c>
+      <c r="C32" s="8">
+        <v>842.43027800000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>7</v>
+      </c>
+      <c r="B33" s="9">
+        <v>0.79869999999999997</v>
+      </c>
+      <c r="C33" s="8">
+        <v>842.11514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>8</v>
+      </c>
+      <c r="B34" s="9">
+        <v>0.82230000000000003</v>
+      </c>
+      <c r="C34" s="8">
+        <v>776.90596600000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>9</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="C35" s="8">
+        <v>725.092624</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>10</v>
+      </c>
+      <c r="B36" s="9">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="C36" s="8">
+        <v>744.226316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>11</v>
+      </c>
+      <c r="B37" s="9">
+        <v>0.8347</v>
+      </c>
+      <c r="C37" s="8">
+        <v>695.50896799999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>12</v>
+      </c>
+      <c r="B38" s="9">
+        <v>0.84650000000000003</v>
+      </c>
+      <c r="C38" s="8">
+        <v>674.74981100000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>13</v>
+      </c>
+      <c r="B39" s="9">
+        <v>0.84609999999999996</v>
+      </c>
+      <c r="C39" s="8">
+        <v>662.82601099999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>14</v>
+      </c>
+      <c r="B40" s="9">
+        <v>0.84719999999999995</v>
+      </c>
+      <c r="C40" s="8">
+        <v>670.81053999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>15</v>
+      </c>
+      <c r="B41" s="9">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="C41" s="8">
+        <v>634.64829899999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>16</v>
+      </c>
+      <c r="B42" s="9">
+        <v>0.8508</v>
+      </c>
+      <c r="C42" s="8">
+        <v>662.69699000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>17</v>
+      </c>
+      <c r="B43" s="9">
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="C43" s="8">
+        <v>653.42689800000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>18</v>
+      </c>
+      <c r="B44" s="9">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="C44" s="8">
+        <v>626.63940500000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>19</v>
+      </c>
+      <c r="B45" s="9">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="C45" s="8">
+        <v>675.84457499999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>20</v>
+      </c>
+      <c r="B46" s="9">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="C46" s="8">
+        <v>648.40145700000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71853ACA-9BF5-49DF-A625-22C2400FEBE9}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>